--- a/Data/Transitions/19211938Translation.xlsx
+++ b/Data/Transitions/19211938Translation.xlsx
@@ -28,22 +28,22 @@
     <t>{1.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.23030650243483242}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.7013754525363534}</t>
+    <t>{486.0: 0.23351728144060413}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6949628567939019}</t>
   </si>
   <si>
     <t>{4.0: 1.0}</t>
   </si>
   <si>
-    <t>{5.0: 0.9881325570980743}</t>
+    <t>{5.0: 0.988177559669864}</t>
   </si>
   <si>
     <t>{6.0: 1.0}</t>
   </si>
   <si>
-    <t>{7.0: 0.9854496071393928}</t>
+    <t>{7.0: 0.9853027630805409}</t>
   </si>
   <si>
     <t>{8.0: 1.0}</t>
@@ -52,7 +52,7 @@
     <t>{9.0: 1.0}</t>
   </si>
   <si>
-    <t>{10.0: 0.9896835717381881}</t>
+    <t>{10.0: 0.9895951735594999}</t>
   </si>
   <si>
     <t>{11.0: 1.0}</t>
@@ -64,7 +64,7 @@
     <t>{13.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9690805402261538, 178.0: 0.00016231131309852296, 623.0: 0.0007625438462711606, 696.0: 0.0029159241859711645, 492.0: 1.804702755802187e-05}</t>
+    <t>{14.0: 0.9691308133691171, 178.0: 0.00016329196603527107, 623.0: 0.0007645259938837921, 696.0: 0.002995008319467554, 492.0: 1.842729104452426e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -73,7 +73,7 @@
     <t>{16.0: 1.0}</t>
   </si>
   <si>
-    <t>{17.0: 0.989010989010989}</t>
+    <t>{17.0: 0.9890756302521009}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
@@ -100,19 +100,19 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 246.0: 0.01497582965958572, 681.0: 0.003530544559751792, 741.0: 0.006816245384833854, 789.0: 0.0030857033245445683, 90.0: 0.005317945236478841}</t>
+    <t>{46.0: 1.0, 246.0: 0.014966331567818519, 681.0: 0.0035354617527319477, 741.0: 0.006816245384833854, 789.0: 0.0030919626462848826, 90.0: 0.005340909090909091}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038, 291.0: 0.0025782349920288987}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448, 291.0: 0.002574966691196572}</t>
   </si>
   <si>
     <t>{49.0: 1.0}</t>
@@ -130,7 +130,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{61.0: 0.9013317191283293}</t>
+    <t>{61.0: 0.900012268433321}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -145,25 +145,25 @@
     <t>{70.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9823489268718721}</t>
+    <t>{71.0: 0.9826600348172096}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.9985699985699986}</t>
+    <t>{73.0: 0.9985652797704447}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.052093120367470505}</t>
+    <t>{75.0: 1.0, 917.0: 0.05246556618652087}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 1.0, 85.0: 0.0009282896263634254}</t>
+    <t>{77.0: 1.0, 85.0: 0.0009250693802035153}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
@@ -172,10 +172,10 @@
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{80.0: 1.0, 757.0: 0.13017306245297217}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.7813887672820841, 172.0: 0.0016469978443069643}</t>
+    <t>{80.0: 1.0, 757.0: 0.16313059877416314}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.7794141476066929, 172.0: 0.0016372181441421784}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -187,10 +187,10 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9990717103736366}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.4764741318287058}</t>
+    <t>{85.0: 0.9990749306197965}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.4742244951302467}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -202,13 +202,13 @@
     <t>{89.0: 1.0}</t>
   </si>
   <si>
-    <t>{90.0: 0.9946820547635211}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9996668959460804, 104.0: 0.037949392653297755, 92.0: 0.0019358061696015986}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9596602972399151}</t>
+    <t>{90.0: 0.9946590909090909}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9996710680889056, 104.0: 0.03566901463603607, 92.0: 0.0019024240564590364}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9603559374041117}</t>
   </si>
   <si>
     <t>{93.0: 1.0}</t>
@@ -226,7 +226,7 @@
     <t>{97.0: 1.0}</t>
   </si>
   <si>
-    <t>{98.0: 0.4111959803251983}</t>
+    <t>{98.0: 0.41510667628725817}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -244,22 +244,22 @@
     <t>{103.0: 1.0}</t>
   </si>
   <si>
-    <t>{104.0: 0.962037962037962, 92.0: 0.03840389659048333}</t>
+    <t>{104.0: 0.964319248826291, 92.0: 0.03774163853942927}</t>
   </si>
   <si>
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 1.0, 543.0: 0.008063770607498084, 86.0: 0.001058517769169222}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9912172052696768}</t>
-  </si>
-  <si>
-    <t>{109.0: 1.0, 110.0: 0.0231353591160221}</t>
-  </si>
-  <si>
-    <t>{110.0: 0.976864640883978}</t>
+    <t>{107.0: 1.0, 543.0: 0.007832323523471525, 86.0: 0.0010626482561926652}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9912221471978393}</t>
+  </si>
+  <si>
+    <t>{109.0: 1.0, 110.0: 0.02275042444821732}</t>
+  </si>
+  <si>
+    <t>{110.0: 0.9772495755517827}</t>
   </si>
   <si>
     <t>{139.0: 0.6493268053855569}</t>
@@ -271,10 +271,10 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9325995807127883, 44.0: 0.02012012012012012}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9989884514878192}</t>
+    <t>{142.0: 0.9325995807127883, 44.0: 0.019901975345314123}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9989927816014773}</t>
   </si>
   <si>
     <t>{145.0: 1.0}</t>
@@ -283,7 +283,7 @@
     <t>{146.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 1.0, 733.0: 0.0815552394499763}</t>
+    <t>{147.0: 1.0, 733.0: 0.07612303606992697}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -298,10 +298,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 1.0, 975.0: 0.0008218266525426588}</t>
-  </si>
-  <si>
-    <t>{162.0: 0.6392101731740047}</t>
+    <t>{152.0: 1.0, 975.0: 0.0008217910235256162}</t>
+  </si>
+  <si>
+    <t>{162.0: 0.6433579685427326}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -310,16 +310,16 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 0.9615337347916922, 914.0: 0.02521597011440579}</t>
-  </si>
-  <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{165.0: 0.9614104302798668, 914.0: 0.02521597011440579}</t>
+  </si>
+  <si>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 1.0}</t>
   </si>
   <si>
-    <t>{168.0: 0.9984929829518696}</t>
+    <t>{168.0: 0.9984805318138652}</t>
   </si>
   <si>
     <t>{169.0: 1.0}</t>
@@ -328,16 +328,16 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.7237212009969225}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9411677681411907, 81.0: 0.003681063393975768}</t>
-  </si>
-  <si>
-    <t>{173.0: 1.0, 404.0: 0.0019775094998694884}</t>
-  </si>
-  <si>
-    <t>{174.0: 1.0, 502.0: 0.21125630104572682}</t>
+    <t>{171.0: 0.7267679586988522}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9404908672461181, 81.0: 0.0036717947657656834}</t>
+  </si>
+  <si>
+    <t>{173.0: 1.0, 404.0: 0.001993970440413294}</t>
+  </si>
+  <si>
+    <t>{174.0: 1.0, 502.0: 0.21299649149607555}</t>
   </si>
   <si>
     <t>{175.0: 1.0}</t>
@@ -349,37 +349,37 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9998376886869015, 14.0: 0.030919459773846237}</t>
+    <t>{178.0: 0.9998367080339647, 14.0: 0.030869186630882887}</t>
   </si>
   <si>
     <t>{179.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 1.0, 410.0: 0.03427719821162444}</t>
+    <t>{180.0: 1.0, 410.0: 0.03398499659013412}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.6463539703298242}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.16269738981458448}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.997979117547996, 171.0: 0.0036723380510758886, 593.0: 0.0009507381887469634, 778.0: 0.0005968011458582001}</t>
+    <t>{182.0: 0.6452906075291367}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.16318645920505354}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9979626485568761, 171.0: 0.003644673256631927, 593.0: 0.000950454102370883, 778.0: 0.0005811250581125058}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
   </si>
   <si>
-    <t>{202.0: 0.9947134446713926}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.8504763219660362}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.997521422253054, 857.0: 0.004858248839482561}</t>
+    <t>{202.0: 0.994717887154862}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.8511544804837823}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.9975053289464635, 857.0: 0.004856450905275958}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -388,7 +388,7 @@
     <t>{206.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 1.0, 477.0: 0.07756537024829707}</t>
+    <t>{207.0: 1.0, 477.0: 0.07758241758241759}</t>
   </si>
   <si>
     <t>{208.0: 1.0}</t>
@@ -400,10 +400,10 @@
     <t>{210.0: 1.0}</t>
   </si>
   <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 1.0, 681.0: 0.00641917192682144}</t>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 1.0, 681.0: 0.0064281122776944505}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -412,16 +412,16 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 0.2483001726694991}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.2727846961866583}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.12090597299870061}</t>
+    <t>{897.0: 0.24775733895741378}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.20300968880857473}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.12102073873692254}</t>
   </si>
   <si>
     <t>{219.0: 1.0}</t>
@@ -430,10 +430,10 @@
     <t>{221.0: 1.0, 999.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -442,10 +442,10 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.6596534653465347, 297.0: 4.127455836222553e-05}</t>
-  </si>
-  <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{227.0: 0.6191135734072022, 297.0: 4.15092773234818e-05}</t>
+  </si>
+  <si>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -478,10 +478,13 @@
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8195167255485202}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18048327445147982}</t>
+    <t>{240.0: 1.0, 241.0: 0.8103169425483226}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.1896830574516774}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -490,7 +493,7 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.6411979451724658}</t>
+    <t>{246.0: 0.6414567650874317}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -499,13 +502,13 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.8994204239565864}</t>
+    <t>{249.0: 0.8985808107367719}</t>
   </si>
   <si>
     <t>{250.0: 1.0}</t>
   </si>
   <si>
-    <t>{251.0: 0.4466893330379997}</t>
+    <t>{251.0: 0.46403865886525403}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
@@ -544,13 +547,13 @@
     <t>{263.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.8256951912792757, 843.0: 0.05213712708196535}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.5219532671708194}</t>
-  </si>
-  <si>
-    <t>{61.0: 0.09785552732248066, 887.0: 0.1816527991938137}</t>
+    <t>{264.0: 0.822645185991658, 843.0: 0.05310073134992693}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.5917282745489029}</t>
+  </si>
+  <si>
+    <t>{61.0: 0.09913371951025017, 887.0: 0.18279766171966416}</t>
   </si>
   <si>
     <t>{268.0: 1.0}</t>
@@ -562,7 +565,7 @@
     <t>{271.0: 1.0}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -571,16 +574,16 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{275.0: 0.9948580830933772}</t>
+    <t>{275.0: 0.9948822927328557}</t>
   </si>
   <si>
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9241202463711181}</t>
-  </si>
-  <si>
-    <t>{278.0: 1.0, 767.0: 0.007574832009773977, 757.0: 0.025527821769220777}</t>
+    <t>{277.0: 0.9239091916149851}</t>
+  </si>
+  <si>
+    <t>{278.0: 1.0, 767.0: 0.006935123042505592, 757.0: 0.029445404857946115}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -592,7 +595,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.19094863985559138}</t>
+    <t>{182.0: 0.19152293326580971}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -604,22 +607,22 @@
     <t>{285.0: 1.0}</t>
   </si>
   <si>
-    <t>{909.0: 0.29894246799652135}</t>
+    <t>{909.0: 0.3035674599120579}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069}</t>
-  </si>
-  <si>
-    <t>{289.0: 1.0, 730.0: 0.046404895461499236}</t>
+    <t>{288.0: 0.9978511952726296}</t>
+  </si>
+  <si>
+    <t>{289.0: 1.0, 730.0: 0.047420531526836895}</t>
   </si>
   <si>
     <t>{290.0: 1.0}</t>
   </si>
   <si>
-    <t>{291.0: 0.9315335374338992}</t>
+    <t>{291.0: 0.9313041049986037}</t>
   </si>
   <si>
     <t>{292.0: 1.0}</t>
@@ -637,10 +640,10 @@
     <t>{296.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9935198943371306}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.674955970412117, 297.0: 0.005448241703813769}</t>
+    <t>{297.0: 0.9934830434602133}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.6710160427807487, 297.0: 0.005479224606699597}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -655,13 +658,13 @@
     <t>{302.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9137777777777778, 144.0: 0.00101154851218073}</t>
+    <t>{303.0: 0.9136242208370436, 144.0: 0.0010072183985227463}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.7922672313682628}</t>
+    <t>{305.0: 0.7921536463673023}</t>
   </si>
   <si>
     <t>{306.0: 1.0, 142.0: 0.06740041928721174}</t>
@@ -673,7 +676,7 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.0024785777469459903, 426.0: 0.03955197759887994, 857.0: 5.0486552666831835e-06}</t>
+    <t>{309.0: 1.0, 204.0: 0.002494671053536544, 426.0: 0.039725786605730354, 857.0: 5.050535780260245e-06}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
@@ -688,13 +691,13 @@
     <t>{314.0: 1.0}</t>
   </si>
   <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009075383344384338}</t>
+    <t>{317.0: 1.0, 71.0: 0.008760009947774185}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -703,10 +706,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{398.0: 1.0, 98.0: 0.5888040196748017}</t>
+    <t>{398.0: 1.0, 98.0: 0.5848933237127418}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
@@ -718,16 +718,16 @@
     <t>{401.0: 0.9842657342657343}</t>
   </si>
   <si>
-    <t>{402.0: 1.0, 476.0: 0.014933895797873095}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8801185344827587}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.6754430885491721}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.30539382716971647}</t>
+    <t>{402.0: 1.0, 476.0: 0.014905851383004936}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8776632302405498}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.672632695232751}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.30810336438072383}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -736,13 +736,13 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
-  </si>
-  <si>
-    <t>{409.0: 0.8790940270012993}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.9657228017883756}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
+  </si>
+  <si>
+    <t>{409.0: 0.8789792612630773}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.9660150034098659}</t>
   </si>
   <si>
     <t>{412.0: 1.0}</t>
@@ -754,7 +754,7 @@
     <t>{414.0: 1.0}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.036121526630896655}</t>
+    <t>{415.0: 1.0, 277.0: 0.03614478949162754}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -763,28 +763,28 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8796827421550545}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.865523866886647}</t>
+    <t>{418.0: 0.879367457019463}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8641091794830309}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{423.0: 0.9963219385547382}</t>
-  </si>
-  <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174, 434.0: 0.0002397507716904726}</t>
+    <t>{423.0: 0.9963346269943941}</t>
+  </si>
+  <si>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514, 434.0: 0.00021743081720157614}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
+    <t>{426.0: 0.9602742133942697}</t>
   </si>
   <si>
     <t>{428.0: 0.9962857389651896}</t>
@@ -793,19 +793,19 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.29759273185332574}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.7024072681466742}</t>
+    <t>{431.0: 0.2217269368149083}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.7782730631850917}</t>
   </si>
   <si>
     <t>{432.0: 1.0}</t>
   </si>
   <si>
-    <t>{433.0: 0.991723641597697}</t>
-  </si>
-  <si>
-    <t>{434.0: 0.9806678383128296}</t>
+    <t>{433.0: 0.9916727009413469}</t>
+  </si>
+  <si>
+    <t>{434.0: 0.9826452800420721}</t>
   </si>
   <si>
     <t>{435.0: 1.0}</t>
@@ -814,7 +814,7 @@
     <t>{436.0: 1.0}</t>
   </si>
   <si>
-    <t>{162.0: 0.36078982682599525}</t>
+    <t>{162.0: 0.35664203145726736}</t>
   </si>
   <si>
     <t>{438.0: 1.0}</t>
@@ -826,34 +826,34 @@
     <t>{440.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 1.0, 782.0: 0.006545006545006545}</t>
+    <t>{441.0: 1.0, 782.0: 0.0066929133858267716}</t>
   </si>
   <si>
     <t>{442.0: 1.0}</t>
   </si>
   <si>
-    <t>{443.0: 0.9623430962343096, 291.0: 0.06588822757407185}</t>
+    <t>{443.0: 0.9625164401578256, 291.0: 0.0661209283101997}</t>
   </si>
   <si>
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.826947033667272}</t>
-  </si>
-  <si>
-    <t>{477.0: 0.9224346297517029}</t>
+    <t>{476.0: 0.8253941069561146}</t>
+  </si>
+  <si>
+    <t>{477.0: 0.9224175824175824}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 1.0, 942.0: 0.009202453987730062}</t>
+    <t>{479.0: 1.0, 942.0: 0.009213051823416507}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
   </si>
   <si>
-    <t>{481.0: 0.9938574938574939}</t>
+    <t>{481.0: 0.9938423645320197}</t>
   </si>
   <si>
     <t>{482.0: 1.0}</t>
@@ -868,7 +868,7 @@
     <t>{485.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.7696934975651676}</t>
+    <t>{486.0: 0.7664827185593959}</t>
   </si>
   <si>
     <t>{487.0: 1.0}</t>
@@ -877,49 +877,49 @@
     <t>{488.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 1.0, 935.0: 0.005207010414020828}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
-  </si>
-  <si>
-    <t>{491.0: 1.0, 492.0: 0.2332358287409201}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.7605750434193205}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9920582395764395, 108.0: 0.008713043878725625}</t>
+    <t>{489.0: 1.0, 935.0: 0.005155287312963662}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
+  </si>
+  <si>
+    <t>{491.0: 1.0, 492.0: 0.233340311686442}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.7605070205814697}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9920826918847592, 108.0: 0.008708355836935765}</t>
   </si>
   <si>
     <t>{494.0: 1.0}</t>
   </si>
   <si>
-    <t>{495.0: 0.9301775147928995}</t>
+    <t>{495.0: 0.9292226487523992}</t>
   </si>
   <si>
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.7682466786944399, 321.0: 1.0}</t>
+    <t>{497.0: 0.7672285981000494, 321.0: 1.0}</t>
   </si>
   <si>
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9598576230966976}</t>
-  </si>
-  <si>
-    <t>{500.0: 0.7436360779384036}</t>
+    <t>{499.0: 0.9608410493827161}</t>
+  </si>
+  <si>
+    <t>{500.0: 0.7417002759348164}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.7887436989542731}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{502.0: 0.7870035085039243}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -931,7 +931,7 @@
     <t>{506.0: 1.0}</t>
   </si>
   <si>
-    <t>{507.0: 0.7996186117467582}</t>
+    <t>{507.0: 0.7984965866380302}</t>
   </si>
   <si>
     <t>{529.0: 1.0}</t>
@@ -949,13 +949,13 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.8956154017360338}</t>
-  </si>
-  <si>
-    <t>{535.0: 1.0, 71.0: 0.008575689783743476}</t>
-  </si>
-  <si>
-    <t>{536.0: 0.5244740231859167}</t>
+    <t>{534.0: 0.8960549645390071}</t>
+  </si>
+  <si>
+    <t>{535.0: 1.0, 71.0: 0.008579955235016165}</t>
+  </si>
+  <si>
+    <t>{536.0: 0.5216757544674189}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -973,7 +973,7 @@
     <t>{542.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.9732503562965729}</t>
+    <t>{543.0: 0.9734764334212167}</t>
   </si>
   <si>
     <t>{544.0: 1.0}</t>
@@ -991,7 +991,7 @@
     <t>{561.0: 1.0}</t>
   </si>
   <si>
-    <t>{562.0: 1.0, 211.0: 0.029372136890326056}</t>
+    <t>{562.0: 1.0, 211.0: 0.02952729242855208}</t>
   </si>
   <si>
     <t>{563.0: 0.9855681658960348}</t>
@@ -1027,10 +1027,10 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.6583012640829924}</t>
-  </si>
-  <si>
-    <t>{581.0: 1.0, 303.0: 0.08622222222222223}</t>
+    <t>{580.0: 0.6573681889847305}</t>
+  </si>
+  <si>
+    <t>{581.0: 1.0, 303.0: 0.08637577916295637}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
@@ -1042,7 +1042,7 @@
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.9875983464461928, 434.0: 0.01909241091548}</t>
+    <t>{585.0: 0.9874713727603395, 434.0: 0.01713728914072638}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1051,7 +1051,7 @@
     <t>{587.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.21493016932394018, 172.0: 0.05718523401450231, 507.0: 0.2003813882532418}</t>
+    <t>{81.0: 0.21691405762754148, 172.0: 0.057871914609739825, 507.0: 0.20150341336196978}</t>
   </si>
   <si>
     <t>{589.0: 1.0}</t>
@@ -1066,7 +1066,7 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9967745561456847, 686.0: 0.0085386092587736}</t>
+    <t>{593.0: 0.9967788758222881, 686.0: 0.008452917354565652}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
@@ -1075,13 +1075,13 @@
     <t>{596.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.9973904244554508}</t>
-  </si>
-  <si>
-    <t>{598.0: 1.0, 599.0: 0.007402846990770414}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.9900333791340854}</t>
+    <t>{597.0: 0.9973572083490643}</t>
+  </si>
+  <si>
+    <t>{598.0: 1.0, 599.0: 0.007619574305512909}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9897425992634663}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1102,7 +1102,7 @@
     <t>{605.0: 1.0}</t>
   </si>
   <si>
-    <t>{606.0: 0.9985494106980961}</t>
+    <t>{606.0: 0.9985660512636674}</t>
   </si>
   <si>
     <t>{607.0: 1.0}</t>
@@ -1120,16 +1120,16 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.014371407148212946}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.985628592851787}</t>
-  </si>
-  <si>
-    <t>{305.0: 0.20773276863173715, 615.0: 0.006883365200764819, 698.0: 0.0026191723415400735, 832.0: 0.1194793119479312}</t>
-  </si>
-  <si>
-    <t>{615.0: 0.9804817960786402}</t>
+    <t>{612.0: 1.0, 613.0: 0.013974117504101099}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.986025882495899}</t>
+  </si>
+  <si>
+    <t>{305.0: 0.20784635363269768, 615.0: 0.006551410373066424, 698.0: 0.0026393929396238865, 832.0: 0.12134088762983947}</t>
+  </si>
+  <si>
+    <t>{615.0: 0.9809807917578434}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1138,10 +1138,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.2834118967740765, 789.0: 0.004033396617945142}</t>
-  </si>
-  <si>
-    <t>{619.0: 1.0, 887.0: 0.008799155487749743, 861.0: 0.015839714675338297, 253.0: 2.6052162294964303e-05}</t>
+    <t>{246.0: 0.28320684486708353, 789.0: 0.004033038154791923}</t>
+  </si>
+  <si>
+    <t>{619.0: 1.0, 887.0: 0.008659293192683624, 861.0: 0.015856347789562113, 253.0: 2.607951939072716e-05}</t>
   </si>
   <si>
     <t>{620.0: 1.0}</t>
@@ -1153,7 +1153,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1180,13 +1180,13 @@
     <t>{631.0: 1.0}</t>
   </si>
   <si>
-    <t>{251.0: 0.5533106669620003}</t>
+    <t>{251.0: 0.535961341134746}</t>
   </si>
   <si>
     <t>{633.0: 1.0}</t>
   </si>
   <si>
-    <t>{634.0: 0.8069981583793738}</t>
+    <t>{634.0: 0.8128571428571428}</t>
   </si>
   <si>
     <t>{635.0: 1.0}</t>
@@ -1204,13 +1204,13 @@
     <t>{680.0: 0.9970428782651553}</t>
   </si>
   <si>
-    <t>{681.0: 0.9900502835134267}</t>
+    <t>{681.0: 0.9900364259695736}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{683.0: 1.0, 698.0: 0.0021036568325302507}</t>
+    <t>{683.0: 1.0, 698.0: 0.002118993978632306}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1219,7 +1219,7 @@
     <t>{685.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.8598968393189069}</t>
+    <t>{686.0: 0.8604486907130277}</t>
   </si>
   <si>
     <t>{687.0: 1.0}</t>
@@ -1243,19 +1243,19 @@
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.522467350402125, 165.0: 0.03846626520830773, 433.0: 0.008276358402302987}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.1358224727016555, 857.0: 0.09832713310967643}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9970840758140288, 492.0: 0.006171080812201368}</t>
+    <t>{86.0: 0.5247128566135606, 165.0: 0.03858956972013315, 433.0: 0.00832729905865315}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.13746880570409983, 857.0: 0.09839006533644457}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9970049916805325, 492.0: 0.006134240441043854}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.9952771708259297}</t>
+    <t>{698.0: 0.9952416130817437}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1264,13 +1264,13 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.8105968747713526}</t>
+    <t>{702.0: 0.8104614690538164}</t>
   </si>
   <si>
     <t>{703.0: 1.0}</t>
   </si>
   <si>
-    <t>{704.0: 1.0, 481.0: 0.006142506142506142}</t>
+    <t>{704.0: 1.0, 481.0: 0.006157635467980296}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
@@ -1279,16 +1279,16 @@
     <t>{706.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9947004269100544}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.21364068587520363}</t>
+    <t>{707.0: 0.9945071711931645}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.21430295186114953}</t>
   </si>
   <si>
     <t>{729.0: 1.0}</t>
   </si>
   <si>
-    <t>{730.0: 0.9535951045385007}</t>
+    <t>{730.0: 0.9525794684731631}</t>
   </si>
   <si>
     <t>{731.0: 1.0}</t>
@@ -1297,10 +1297,10 @@
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{733.0: 0.9184447605500237}</t>
-  </si>
-  <si>
-    <t>{734.0: 1.0, 73.0: 0.00143000143000143, 888.0: 0.010693069306930694}</t>
+    <t>{733.0: 0.923876963930073}</t>
+  </si>
+  <si>
+    <t>{734.0: 1.0, 73.0: 0.0014347202295552368, 888.0: 0.010686720759944587}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
@@ -1309,19 +1309,19 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
-  </si>
-  <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
+  </si>
+  <si>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.1669884875968601, 246.0: 0.009385809539203704}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9931837546151662, 789.0: 0.001339605819551074, 246.0: 0.0046834341753414985}</t>
+    <t>{740.0: 1.0, 789.0: 0.1669737704553179, 246.0: 0.00937818612090443}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.9931837546151662, 789.0: 0.0013426240374213674, 246.0: 0.004680023247519948}</t>
   </si>
   <si>
     <t>{743.0: 1.0}</t>
@@ -1339,7 +1339,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.18922155688622755, 476.0: 0.15811907053485494, 534.0: 0.10438459826396616}</t>
+    <t>{298.0: 0.19151515151515153, 476.0: 0.15970004166088042, 534.0: 0.1039450354609929}</t>
   </si>
   <si>
     <t>{750.0: 1.0}</t>
@@ -1348,7 +1348,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.12805805004180382}</t>
+    <t>{580.0: 0.12832885915412007}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1363,7 +1363,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.36222635520957475}</t>
+    <t>{757.0: 0.2513707719978347}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
@@ -1372,10 +1372,10 @@
     <t>{759.0: 1.0}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.05816302294063936}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9418369770593606}</t>
+    <t>{760.0: 1.0, 761.0: 0.05807537591257333}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9419246240874267}</t>
   </si>
   <si>
     <t>{762.0: 1.0}</t>
@@ -1393,7 +1393,7 @@
     <t>{766.0: 1.0}</t>
   </si>
   <si>
-    <t>{767.0: 0.9924251679902261}</t>
+    <t>{767.0: 0.9930648769574945}</t>
   </si>
   <si>
     <t>{768.0: 1.0}</t>
@@ -1408,10 +1408,10 @@
     <t>{771.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 1.0, 493.0: 0.007941760423560556, 108.0: 6.975085159753668e-05}</t>
-  </si>
-  <si>
-    <t>{773.0: 1.0, 757.0: 0.48207276056823234}</t>
+    <t>{772.0: 1.0, 493.0: 0.007917308115240818, 108.0: 6.949696522493627e-05}</t>
+  </si>
+  <si>
+    <t>{773.0: 1.0, 757.0: 0.556053224370056}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1423,7 +1423,7 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9994031988541417, 171.0: 0.01830002189473766, 184.0: 0.0020208824520040417, 593.0: 0.00123755688186106}</t>
+    <t>{778.0: 0.9994188749418875, 171.0: 0.018088971578194488, 184.0: 0.0020373514431239388, 593.0: 0.001237224002436105}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
@@ -1435,7 +1435,7 @@
     <t>{781.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.7756341095382191, 168.0: 0.001507017048130357, 930.0: 0.0001449642343529439}</t>
+    <t>{782.0: 0.7705424927926521, 168.0: 0.0015194681861348527, 930.0: 0.00014520576519361564}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1450,19 +1450,19 @@
     <t>{786.0: 1.0}</t>
   </si>
   <si>
-    <t>{500.0: 0.25636392206159647}</t>
+    <t>{500.0: 0.25829972406518376}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.824552806641099, 246.0: 0.04634508467932692}</t>
+    <t>{789.0: 0.824558604706184, 246.0: 0.0463118491092418}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
   </si>
   <si>
-    <t>{832.0: 0.8805206880520688}</t>
+    <t>{832.0: 0.8786591123701605}</t>
   </si>
   <si>
     <t>{833.0: 1.0}</t>
@@ -1471,16 +1471,16 @@
     <t>{834.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 0.9951693718708581, 836.0: 0.01623484783609078}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9837651521639091, 835.0: 0.0048306281291418725}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 536.0: 0.4755259768140833}</t>
-  </si>
-  <si>
-    <t>{838.0: 1.0, 423.0: 0.0036780614452617912}</t>
+    <t>{835.0: 0.9949819321325729, 836.0: 0.015424630556912554}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9845753694430874, 835.0: 0.005018067867427023}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 536.0: 0.4783242455325811}</t>
+  </si>
+  <si>
+    <t>{838.0: 1.0, 423.0: 0.0036653730056058647}</t>
   </si>
   <si>
     <t>{839.0: 1.0}</t>
@@ -1495,10 +1495,10 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{843.0: 0.9478628729180346, 264.0: 0.1743048087207244}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.34034653465346537, 686.0: 0.02735229759299781}</t>
+    <t>{843.0: 0.9468992686500731, 264.0: 0.17735481400834197}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.3808864265927978, 686.0: 0.02725538293813028}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1510,25 +1510,25 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 1.0, 707.0: 0.005299573089945532}</t>
+    <t>{848.0: 1.0, 707.0: 0.00549282880683552}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 1.0, 277.0: 0.03975822699798522}</t>
-  </si>
-  <si>
-    <t>{851.0: 1.0, 7.0: 0.014550392860607237}</t>
-  </si>
-  <si>
-    <t>{852.0: 1.0, 922.0: 0.0020671542699406886}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 91.0: 0.00033310405391959646, 104.0: 1.264530874020446e-05, 202.0: 0.005286555328607473, 680.0: 0.002957121734844751}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{850.0: 1.0, 277.0: 0.039946018893387315}</t>
+  </si>
+  <si>
+    <t>{851.0: 1.0, 7.0: 0.014697236919459141}</t>
+  </si>
+  <si>
+    <t>{852.0: 1.0, 922.0: 0.002137568399464582}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 91.0: 0.00032893191109440345, 104.0: 1.1736537672851953e-05, 202.0: 0.005282112845138055, 680.0: 0.002957121734844751}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1537,10 +1537,10 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.8968095693955744}</t>
-  </si>
-  <si>
-    <t>{858.0: 1.0, 543.0: 0.01868587309592908}</t>
+    <t>{857.0: 0.8967484332224991}</t>
+  </si>
+  <si>
+    <t>{858.0: 1.0, 543.0: 0.01869124305531175}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1549,13 +1549,13 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.9841602853246617, 253.0: 0.0016186846798102988, 490.0: 0.04730928444707274}</t>
+    <t>{861.0: 0.9841436522104379, 253.0: 0.0016186573227145358, 490.0: 0.04747774480712166}</t>
   </si>
   <si>
     <t>{862.0: 1.0}</t>
   </si>
   <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1564,10 +1564,10 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.8095480453184366, 61.0: 0.0008127535491900388}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.9893069306930693}</t>
+    <t>{887.0: 0.8085430450876522, 61.0: 0.0008540120564287575}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.9893132792400554}</t>
   </si>
   <si>
     <t>{889.0: 1.0}</t>
@@ -1582,7 +1582,7 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
@@ -1591,22 +1591,22 @@
     <t>{895.0: 1.0}</t>
   </si>
   <si>
-    <t>{896.0: 1.0, 897.0: 0.025430154564012833}</t>
-  </si>
-  <si>
-    <t>{897.0: 0.726269672766488}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.04014237690330235}</t>
+    <t>{896.0: 1.0, 897.0: 0.02537243947858473}</t>
+  </si>
+  <si>
+    <t>{897.0: 0.7268702215640015}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.03915895061728395}</t>
   </si>
   <si>
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{907.0: 1.0, 404.0: 0.00974847848333064, 930.0: 0.011826880543850254}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.7010575320034786}</t>
+    <t>{907.0: 1.0, 404.0: 0.009766889704295272, 930.0: 0.012177289833880672}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.6964325400879421}</t>
   </si>
   <si>
     <t>{910.0: 1.0}</t>
@@ -1621,28 +1621,28 @@
     <t>{914.0: 0.9747840298855942}</t>
   </si>
   <si>
-    <t>{915.0: 1.0, 171.0: 0.25325887987017, 420.0: 0.13447613311335305}</t>
+    <t>{915.0: 1.0, 171.0: 0.2504542281463881, 420.0: 0.135890820516969}</t>
   </si>
   <si>
     <t>{916.0: 1.0}</t>
   </si>
   <si>
-    <t>{917.0: 0.9479068796325295}</t>
+    <t>{917.0: 0.9475344338134791}</t>
   </si>
   <si>
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 1.0, 275.0: 0.005141916906622789, 686.0: 0.10421225382932166}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.9318095401424951}</t>
+    <t>{921.0: 1.0, 275.0: 0.00511770726714432, 686.0: 0.10384300899427637}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.9329663921970799}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1660,13 +1660,13 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.2986245474636466, 418.0: 0.12031725784494546, 922.0: 0.06612330558756407}</t>
-  </si>
-  <si>
-    <t>{929.0: 0.9982030043520989, 930.0: 0.59508548604087}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.39294266918092696, 929.0: 0.0017969956479011652}</t>
+    <t>{3.0: 0.3050371432060981, 418.0: 0.12063254298053716, 922.0: 0.06489603940345559}</t>
+  </si>
+  <si>
+    <t>{929.0: 0.9981531979973741, 930.0: 0.6060427505124}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.38163475388852564, 929.0: 0.0018468020026259217}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
@@ -1675,22 +1675,22 @@
     <t>{932.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 702.0: 0.0035650623885918, 249.0: 0.09355459834493014}</t>
-  </si>
-  <si>
-    <t>{934.0: 1.0, 5.0: 0.01186744290192566}</t>
-  </si>
-  <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{933.0: 1.0, 702.0: 0.0035676061362825543, 249.0: 0.09435006897597502}</t>
+  </si>
+  <si>
+    <t>{934.0: 1.0, 5.0: 0.01182244033013607}</t>
+  </si>
+  <si>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 171.0: 0.001047559187094071, 593.0: 0.0010371487837073355}</t>
-  </si>
-  <si>
-    <t>{938.0: 0.7590095611669527}</t>
+    <t>{937.0: 1.0, 171.0: 0.0010441683199331733, 593.0: 0.001033446072904923}</t>
+  </si>
+  <si>
+    <t>{938.0: 0.750950088674943}</t>
   </si>
   <si>
     <t>{939.0: 1.0}</t>
@@ -1702,19 +1702,19 @@
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.19300184162062614}</t>
+    <t>{942.0: 0.9907869481765835}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.18714285714285714}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 975.0: 0.002119815668202765}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.3506731946144431, 615.0: 0.012634838720595046}</t>
+    <t>{971.0: 1.0, 975.0: 0.002163077212451801}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.3506731946144431, 615.0: 0.01246779786909029}</t>
   </si>
   <si>
     <t>{973.0: 1.0}</t>
@@ -1723,16 +1723,16 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9970583576792547}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{975.0: 0.9970151317640227}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.21782088391677432}</t>
+    <t>{782.0: 0.22276459382152106}</t>
   </si>
   <si>
     <t>{979.0: 1.0}</t>
@@ -1744,16 +1744,16 @@
     <t>{981.0: 1.0}</t>
   </si>
   <si>
-    <t>{989.0: 1.0, 249.0: 0.007024977698483497, 495.0: 0.06982248520710059}</t>
-  </si>
-  <si>
-    <t>{990.0: 1.0, 599.0: 0.0025637738751442124}</t>
-  </si>
-  <si>
-    <t>{497.0: 0.23175332130556012, 938.0: 0.24099043883304733}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.995576199955762}</t>
+    <t>{989.0: 1.0, 249.0: 0.007069120287253142, 495.0: 0.07077735124760076}</t>
+  </si>
+  <si>
+    <t>{990.0: 1.0, 599.0: 0.002637826431020839}</t>
+  </si>
+  <si>
+    <t>{497.0: 0.23277140189995058, 938.0: 0.249049911325057}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.9955840141311548}</t>
   </si>
   <si>
     <t>{486.0: 1.0}</t>
@@ -1771,22 +1771,22 @@
     <t>{10.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919299714123918, 178.0: 0.0006410880191330579, 623.0: 0.0016149870801033589, 696.0: 0.005721431161519681, 492.0: 9.252232685240912e-05}</t>
+    <t>{14.0: 0.9919351812436294, 178.0: 0.000640674146945109, 623.0: 0.0016139444803098773, 696.0: 0.005717900736820557, 492.0: 9.229939229500005e-05}</t>
   </si>
   <si>
     <t>{17.0: 1.0}</t>
   </si>
   <si>
-    <t>{34.0: 0.6476663616158975, 995.0: 0.3523336383841024}</t>
+    <t>{34.0: 0.6476663616158975, 995.0: 0.3523336383841025}</t>
   </si>
   <si>
     <t>{44.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.900252841273, 246.0: 0.056984060381408366, 681.0: 0.010181063660729604, 741.0: 0.007246801878611774, 789.0: 0.011094343206668732, 90.0: 0.014240889599581854}</t>
-  </si>
-  <si>
-    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966833, 291.0: 0.008663113498195959}</t>
+    <t>{46.0: 0.9002528412729996, 246.0: 0.056983305008493704, 681.0: 0.010181063660729604, 741.0: 0.007246801878611777, 789.0: 0.011095098579583396, 90.0: 0.01424088959958185}</t>
+  </si>
+  <si>
+    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966835, 291.0: 0.008663113498195957}</t>
   </si>
   <si>
     <t>{61.0: 1.0}</t>
@@ -1798,16 +1798,16 @@
     <t>{73.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 0.8852873563218391, 917.0: 0.11471264367816092}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.9994776704100288, 85.0: 0.0005223295899712719}</t>
-  </si>
-  <si>
-    <t>{80.0: 0.9332690453230472, 757.0: 0.06673095467695275}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.998538267869943, 172.0: 0.001461732130057138}</t>
+    <t>{75.0: 0.8878903617164682, 917.0: 0.11210963828353179}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613506, 85.0: 0.0005307151386493299}</t>
+  </si>
+  <si>
+    <t>{80.0: 0.9332690453230471, 757.0: 0.06673095467695275}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9985370734491797, 172.0: 0.001462926550820381}</t>
   </si>
   <si>
     <t>{85.0: 1.0}</t>
@@ -1819,7 +1819,7 @@
     <t>{90.0: 1.0}</t>
   </si>
   <si>
-    <t>{91.0: 0.9996993636987668, 104.0: 0.00018529476004698704, 92.0: 0.00011534154118623194}</t>
+    <t>{91.0: 0.9996993636987667, 104.0: 0.00018529476004698704, 92.0: 0.00011534154118623197}</t>
   </si>
   <si>
     <t>{92.0: 1.0}</t>
@@ -1828,16 +1828,16 @@
     <t>{98.0: 1.0}</t>
   </si>
   <si>
-    <t>{104.0: 0.8253337120136325, 92.0: 0.17466628798636752}</t>
-  </si>
-  <si>
-    <t>{107.0: 0.9909510743504858, 543.0: 0.007316841541670783, 86.0: 0.001732084107843088}</t>
+    <t>{104.0: 0.8344103392568659, 92.0: 0.16558966074313408}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.9909563540599627, 543.0: 0.007311552603786087, 86.0: 0.0017320933362511446}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
   </si>
   <si>
-    <t>{109.0: 0.9924710641645131, 110.0: 0.007528935835487131}</t>
+    <t>{109.0: 0.9924710641645129, 110.0: 0.007528935835487131}</t>
   </si>
   <si>
     <t>{110.0: 1.0}</t>
@@ -1846,16 +1846,16 @@
     <t>{139.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007264, 44.0: 0.015208262399273635}</t>
+    <t>{142.0: 0.9847119224187108, 44.0: 0.015288077581289217}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.929038025166747, 733.0: 0.07096197483325312}</t>
-  </si>
-  <si>
-    <t>{152.0: 0.9990500316656113, 975.0: 0.0009499683343888536}</t>
+    <t>{147.0: 0.9290380251667472, 733.0: 0.0709619748332531}</t>
+  </si>
+  <si>
+    <t>{152.0: 0.9990500316656109, 975.0: 0.0009499683343888537}</t>
   </si>
   <si>
     <t>{162.0: 1.0}</t>
@@ -1864,7 +1864,7 @@
     <t>{165.0: 0.9867533423279774, 914.0: 0.013246657672022568}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589457, 893.0: 0.0007695267410542517}</t>
+    <t>{166.0: 0.9992208804051422, 893.0: 0.0007791195948578107}</t>
   </si>
   <si>
     <t>{168.0: 1.0}</t>
@@ -1873,25 +1873,25 @@
     <t>{171.0: 1.0}</t>
   </si>
   <si>
-    <t>{172.0: 0.9946275071633238, 81.0: 0.0053724928366762174}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9936051159072742, 404.0: 0.006394884092725819}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.5192117150704537, 502.0: 0.4807882849295463}</t>
+    <t>{172.0: 0.9946275071633237, 81.0: 0.0053724928366762174}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9936119244077721, 404.0: 0.006388075592227841}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.5213493935712422, 502.0: 0.47865060642875795}</t>
   </si>
   <si>
     <t>{178.0: 0.9924042536179739, 14.0: 0.007595746382026065}</t>
   </si>
   <si>
-    <t>{180.0: 0.9746846160358988, 410.0: 0.02531538396410126}</t>
+    <t>{180.0: 0.9746846160358987, 410.0: 0.025315383964101257}</t>
   </si>
   <si>
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.9835310975016114, 171.0: 0.011387480521058113, 593.0: 0.0033967858587322275, 778.0: 0.0016846361185983828}</t>
+    <t>{184.0: 0.98348801718129, 171.0: 0.011407602914240296, 593.0: 0.0034060103392520736, 778.0: 0.0016983695652173913}</t>
   </si>
   <si>
     <t>{202.0: 1.0}</t>
@@ -1900,16 +1900,16 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9946148092744952, 857.0: 0.0053851907255048626}</t>
-  </si>
-  <si>
-    <t>{207.0: 0.4623000761614623, 477.0: 0.5376999238385377}</t>
+    <t>{204.0: 0.9946682464454977, 857.0: 0.005331753554502371}</t>
+  </si>
+  <si>
+    <t>{207.0: 0.4480062548866302, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9783393501805052, 681.0: 0.021660649819494584}</t>
+    <t>{212.0: 0.9783393501805058, 681.0: 0.021660649819494584}</t>
   </si>
   <si>
     <t>{897.0: 1.0}</t>
@@ -1921,22 +1921,22 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.7815333823680913, 409.0: 0.2184666176319087}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.9001536098310291, 999.0: 0.0998463901689708}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.8416485635345011, 490.0: 0.002764034691410512, 503.0: 0.15558740177408845}</t>
+    <t>{218.0: 0.7813754377265826, 409.0: 0.21862456227341748}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.9001536098310295, 999.0: 0.09984639016897083}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.8413236115648752, 490.0: 0.002769789667703293, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.9998191354675349, 297.0: 0.00018086453246518358}</t>
-  </si>
-  <si>
-    <t>{228.0: 0.9923809523809523, 738.0: 0.007619047619047619}</t>
+    <t>{227.0: 0.9998209810239885, 297.0: 0.00017901897601145723}</t>
+  </si>
+  <si>
+    <t>{228.0: 0.9923809523809524, 738.0: 0.007619047619047622}</t>
   </si>
   <si>
     <t>{240.0: 0.2375030654635066, 241.0: 0.7624969345364934}</t>
@@ -1957,10 +1957,10 @@
     <t>{253.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.9789285950194861, 843.0: 0.0210714049805139}</t>
-  </si>
-  <si>
-    <t>{61.0: 0.28869996457669145, 887.0: 0.7113000354233081}</t>
+    <t>{264.0: 0.9789285950194858, 843.0: 0.0210714049805139}</t>
+  </si>
+  <si>
+    <t>{61.0: 0.28869996457669145, 887.0: 0.7113000354233088}</t>
   </si>
   <si>
     <t>{272.0: 0.8427700348432056, 203.0: 0.15722996515679444}</t>
@@ -1981,7 +1981,7 @@
     <t>{288.0: 1.0}</t>
   </si>
   <si>
-    <t>{289.0: 0.9615709459459456, 730.0: 0.03842905405405406}</t>
+    <t>{289.0: 0.9615709459459457, 730.0: 0.03842905405405406}</t>
   </si>
   <si>
     <t>{291.0: 1.0}</t>
@@ -1990,25 +1990,25 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.9860774179938825, 297.0: 0.013922582006117498}</t>
-  </si>
-  <si>
-    <t>{303.0: 0.997696737044146, 144.0: 0.0023032629558541267}</t>
+    <t>{298.0: 0.9860788863109049, 297.0: 0.013921113689095127}</t>
+  </si>
+  <si>
+    <t>{303.0: 0.9976869699306091, 144.0: 0.002313030069390902}</t>
   </si>
   <si>
     <t>{305.0: 1.0}</t>
   </si>
   <si>
-    <t>{306.0: 0.9617261904761903, 142.0: 0.03827380952380952}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.923715512154184, 204.0: 0.003135424277730702, 426.0: 0.07314326591581212, 857.0: 5.797652272921261e-06}</t>
-  </si>
-  <si>
-    <t>{315.0: 0.9926840420667581, 217.0: 0.007315957933241884}</t>
-  </si>
-  <si>
-    <t>{317.0: 0.9822371579452712, 71.0: 0.017762842054728757}</t>
+    <t>{306.0: 0.9617261904761906, 142.0: 0.03827380952380952}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.9260438873398633, 204.0: 0.003087918530746193, 426.0: 0.070862736858608, 857.0: 5.457270782499868e-06}</t>
+  </si>
+  <si>
+    <t>{315.0: 0.9926840420667583, 217.0: 0.007315957933241884}</t>
+  </si>
+  <si>
+    <t>{317.0: 0.9820519039534321, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{398.0: 0.48711423962041384, 98.0: 0.5128857603795861}</t>
@@ -2017,7 +2017,7 @@
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9895904270843466, 476.0: 0.010409572915653274}</t>
+    <t>{402.0: 0.9895904270843465, 476.0: 0.010409572915653274}</t>
   </si>
   <si>
     <t>{403.0: 1.0}</t>
@@ -2026,10 +2026,10 @@
     <t>{404.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.365657648004286, 404.0: 0.6343423519957139}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{405.0: 0.35768535262206147, 404.0: 0.6423146473779385}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917455, 403.0: 0.056861742908254534}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -2038,13 +2038,13 @@
     <t>{410.0: 1.0}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471698, 277.0: 0.1268867924528302}</t>
+    <t>{415.0: 0.8729333963155409, 277.0: 0.12706660368445913}</t>
   </si>
   <si>
     <t>{418.0: 1.0}</t>
   </si>
   <si>
-    <t>{419.0: 0.9852104664391352, 17.0: 0.014789533560864617}</t>
+    <t>{419.0: 0.9852607709750568, 17.0: 0.014739229024943313}</t>
   </si>
   <si>
     <t>{420.0: 1.0}</t>
@@ -2053,7 +2053,7 @@
     <t>{423.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 0.9520371325425477, 585.0: 0.0475629244060067, 434.0: 0.00039994305144559083}</t>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.04748944923957106, 434.0: 0.00039932521974922795}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
@@ -2071,10 +2071,10 @@
     <t>{434.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 0.9886363636363633, 782.0: 0.011363636363636366}</t>
-  </si>
-  <si>
-    <t>{443.0: 0.8939655172413792, 291.0: 0.1060344827586207}</t>
+    <t>{441.0: 0.9886363636363636, 782.0: 0.011363636363636364}</t>
+  </si>
+  <si>
+    <t>{443.0: 0.8939655172413793, 291.0: 0.10603448275862068}</t>
   </si>
   <si>
     <t>{476.0: 1.0}</t>
@@ -2083,19 +2083,19 @@
     <t>{477.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.977859778597786, 942.0: 0.02214022140221402}</t>
+    <t>{479.0: 0.9774223894637818, 942.0: 0.022577610536218252}</t>
   </si>
   <si>
     <t>{481.0: 1.0}</t>
   </si>
   <si>
-    <t>{483.0: 0.9609996213555472, 563.0: 0.03900037864445286}</t>
-  </si>
-  <si>
-    <t>{489.0: 0.9916936790923824, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869779, 503.0: 0.022113022113022112}</t>
+    <t>{483.0: 0.960999621355547, 563.0: 0.03900037864445286}</t>
+  </si>
+  <si>
+    <t>{489.0: 0.9917305365066561, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294479, 503.0: 0.022085889570552148}</t>
   </si>
   <si>
     <t>{491.0: 0.594383150823144, 492.0: 0.405616849176856}</t>
@@ -2104,13 +2104,13 @@
     <t>{492.0: 1.0}</t>
   </si>
   <si>
-    <t>{493.0: 0.9826319305277217, 108.0: 0.01736806947227789}</t>
+    <t>{493.0: 0.9826319305277221, 108.0: 0.01736806947227789}</t>
   </si>
   <si>
     <t>{495.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.8601619027150942, 321.0: 0.1398380972849058}</t>
+    <t>{497.0: 0.8695187165775399, 321.0: 0.1304812834224599}</t>
   </si>
   <si>
     <t>{499.0: 1.0}</t>
@@ -2131,7 +2131,7 @@
     <t>{534.0: 1.0}</t>
   </si>
   <si>
-    <t>{535.0: 0.9934522679825393, 71.0: 0.0065477320174606194}</t>
+    <t>{535.0: 0.9934522679825394, 71.0: 0.006547732017460618}</t>
   </si>
   <si>
     <t>{536.0: 1.0}</t>
@@ -2146,7 +2146,7 @@
     <t>{563.0: 1.0}</t>
   </si>
   <si>
-    <t>{576.0: 0.9802847754654981, 401.0: 0.019715224534501644}</t>
+    <t>{576.0: 0.9802847754654984, 401.0: 0.019715224534501644}</t>
   </si>
   <si>
     <t>{580.0: 1.0}</t>
@@ -2155,16 +2155,16 @@
     <t>{581.0: 0.9359904975584005, 303.0: 0.06400950244159957}</t>
   </si>
   <si>
-    <t>{583.0: 0.6131836291198841, 742.0: 0.38681637088011595}</t>
-  </si>
-  <si>
-    <t>{585.0: 0.9916614024005053, 434.0: 0.00833859759949463}</t>
+    <t>{583.0: 0.6131836291198841, 742.0: 0.3868163708801159}</t>
+  </si>
+  <si>
+    <t>{585.0: 0.9916614024005054, 434.0: 0.00833859759949463}</t>
   </si>
   <si>
     <t>{81.0: 0.36897941862932315, 172.0: 0.0736261404625504, 507.0: 0.5573944409081265}</t>
   </si>
   <si>
-    <t>{593.0: 0.9945545019247017, 686.0: 0.005445498075298094}</t>
+    <t>{593.0: 0.99456419868791, 686.0: 0.005435801312089972}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -2185,16 +2185,16 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.8292882465230433, 615.0: 0.019634578674665937, 698.0: 0.0109080992637033, 832.0: 0.14016907553858743}</t>
+    <t>{305.0: 0.8292882465230433, 615.0: 0.01963457867466594, 698.0: 0.0109080992637033, 832.0: 0.1401690755385874}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.987024483063915, 789.0: 0.012975516936084949}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.9655096441914438, 887.0: 0.013007925875422115, 861.0: 0.021466746056462076, 253.0: 1.5683876672083762e-05}</t>
+    <t>{246.0: 0.9870235970064315, 789.0: 0.012976402993568508}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9654101869025539, 887.0: 0.01304608360679127, 861.0: 0.021528000860446848, 253.0: 1.5728630208029214e-05}</t>
   </si>
   <si>
     <t>{623.0: 1.0}</t>
@@ -2215,13 +2215,13 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.9488141498057081, 165.0: 0.04194023850998258, 433.0: 0.00924561168430926}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.7213799011643242, 857.0: 0.2786200988356758}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9840861597813856, 492.0: 0.01591384021861437}</t>
+    <t>{86.0: 0.9488141498057084, 165.0: 0.04194023850998258, 433.0: 0.00924561168430926}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.7214598032652256, 857.0: 0.2785401967347743}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9841142490372272, 492.0: 0.015885750962772786}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2230,7 +2230,7 @@
     <t>{702.0: 1.0}</t>
   </si>
   <si>
-    <t>{704.0: 0.9874529485570891, 481.0: 0.012547051442910916}</t>
+    <t>{704.0: 0.9874529485570893, 481.0: 0.012547051442910915}</t>
   </si>
   <si>
     <t>{707.0: 1.0}</t>
@@ -2242,22 +2242,22 @@
     <t>{733.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 0.9638009049773756, 73.0: 0.005656108597285069, 888.0: 0.030542986425339362}</t>
-  </si>
-  <si>
-    <t>{737.0: 0.926637554585153, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{734.0: 0.9645232815964523, 73.0: 0.005543237250554325, 888.0: 0.02993348115299335}</t>
+  </si>
+  <si>
+    <t>{737.0: 0.9279588336192109, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 0.701123595505618, 789.0: 0.2817308042745055, 246.0: 0.017145600219876624}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9787142989318189, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.5626309174696271, 476.0: 0.24088814411395054, 534.0: 0.19648093841642233}</t>
+    <t>{740.0: 0.701123595505618, 789.0: 0.2817500427902968, 246.0: 0.017126361704085165}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.9787142989318187, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.5626309174696271, 476.0: 0.24088814411395057, 534.0: 0.19648093841642233}</t>
   </si>
   <si>
     <t>{757.0: 1.0}</t>
@@ -2272,73 +2272,73 @@
     <t>{767.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 0.9882429784454608, 493.0: 0.011552824787393204, 108.0: 0.00020419676714631093}</t>
-  </si>
-  <si>
-    <t>{773.0: 0.8230245634803199, 757.0: 0.17697543651968028}</t>
-  </si>
-  <si>
-    <t>{778.0: 0.9784971368470253, 171.0: 0.019290456956868693, 184.0: 0.0006907963904283363, 593.0: 0.001521609805677143}</t>
-  </si>
-  <si>
-    <t>{782.0: 0.9974744701877677, 168.0: 0.001756890304161634, 930.0: 0.0007686395080707148}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.9426331421214654, 246.0: 0.057366857878534565}</t>
+    <t>{772.0: 0.9882429784454605, 493.0: 0.011552824787393208, 108.0: 0.00020419676714631088}</t>
+  </si>
+  <si>
+    <t>{773.0: 0.8230245634803196, 757.0: 0.17697543651968034}</t>
+  </si>
+  <si>
+    <t>{778.0: 0.9790504383468064, 171.0: 0.018794097923397875, 184.0: 0.0006730009233437213, 593.0: 0.0014824628064520752}</t>
+  </si>
+  <si>
+    <t>{782.0: 0.9974866134848652, 168.0: 0.001748442793137362, 930.0: 0.0007649437219975958}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.9426975115915949, 246.0: 0.05730248840840527}</t>
   </si>
   <si>
     <t>{832.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 0.9904058244467708, 836.0: 0.009594175553229306}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646832, 835.0: 0.008157389635316698}</t>
+    <t>{835.0: 0.9900669157761305, 836.0: 0.009933084223869345}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952597994, 835.0: 0.007748404740200546}</t>
   </si>
   <si>
     <t>{837.0: 0.872876492194674, 536.0: 0.127123507805326}</t>
   </si>
   <si>
-    <t>{838.0: 0.9922515952597992, 423.0: 0.007748404740200546}</t>
+    <t>{838.0: 0.9922515952598001, 423.0: 0.007748404740200547}</t>
   </si>
   <si>
     <t>{843.0: 0.6987318706890846, 264.0: 0.3012681293109154}</t>
   </si>
   <si>
-    <t>{227.0: 0.9322033898305085, 686.0: 0.06779661016949153}</t>
-  </si>
-  <si>
-    <t>{848.0: 0.9943369513921663, 707.0: 0.0056630486078338834}</t>
-  </si>
-  <si>
-    <t>{850.0: 0.9025032938076417, 277.0: 0.09749670619235837}</t>
+    <t>{227.0: 0.9322033898305087, 686.0: 0.06779661016949153}</t>
+  </si>
+  <si>
+    <t>{848.0: 0.9943369513921658, 707.0: 0.005663048607833885}</t>
+  </si>
+  <si>
+    <t>{850.0: 0.9025032938076416, 277.0: 0.09749670619235837}</t>
   </si>
   <si>
     <t>{851.0: 0.9234303215926492, 7.0: 0.07656967840735067}</t>
   </si>
   <si>
-    <t>{852.0: 0.9899146625290923, 922.0: 0.01008533747090768}</t>
+    <t>{852.0: 0.9898358092259578, 922.0: 0.010164190774042221}</t>
   </si>
   <si>
     <t>{853.0: 0.9980896815585234, 91.0: 0.001183407722110313, 104.0: 2.1934519303370886e-07, 202.0: 0.000639488409272582, 680.0: 8.720296490080663e-05}</t>
   </si>
   <si>
-    <t>{854.0: 0.9973455598455598, 976.0: 0.0026544401544401543}</t>
+    <t>{854.0: 0.9973352713178294, 976.0: 0.0026647286821705426}</t>
   </si>
   <si>
     <t>{857.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.987298578199052, 543.0: 0.012701421800947866}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9908212213410212, 253.0: 0.0007239065389194395, 490.0: 0.008454872120059184}</t>
+    <t>{858.0: 0.9872985781990521, 543.0: 0.01270142180094787}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9908122828101357, 253.0: 0.000723900008315515, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{863.0: 0.9722739981360671, 10.0: 0.027726001863932898}</t>
   </si>
   <si>
-    <t>{887.0: 0.9991196024500588, 61.0: 0.0008803975499411181}</t>
+    <t>{887.0: 0.999132407847768, 61.0: 0.0008675921522319134}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -2353,19 +2353,19 @@
     <t>{905.0: 0.9854766589161152, 499.0: 0.014523341083884813}</t>
   </si>
   <si>
-    <t>{907.0: 0.879053122651046, 404.0: 0.03253754912062153, 930.0: 0.08840932822833275}</t>
+    <t>{907.0: 0.8798553903872072, 404.0: 0.032316117219984695, 930.0: 0.0878284923928077}</t>
   </si>
   <si>
     <t>{914.0: 1.0}</t>
   </si>
   <si>
-    <t>{915.0: 0.5124185505583967, 171.0: 0.26032762398046216, 420.0: 0.22725382546114126}</t>
+    <t>{915.0: 0.5204580106136844, 171.0: 0.2557483187470411, 420.0: 0.22379367063927466}</t>
   </si>
   <si>
     <t>{917.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 0.9939789262418465, 297.0: 0.006021073758153537}</t>
+    <t>{919.0: 0.9941104294478528, 297.0: 0.00588957055214724}</t>
   </si>
   <si>
     <t>{921.0: 0.8294810569070874, 275.0: 0.005333597330935491, 686.0: 0.16518534576197702}</t>
@@ -2374,28 +2374,28 @@
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.6037465689154068, 418.0: 0.22706767089552465, 922.0: 0.16918576018906853}</t>
-  </si>
-  <si>
-    <t>{929.0: 0.5434843696206071, 930.0: 0.4565156303793927}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.9963250193854808, 929.0: 0.0036749806145191417}</t>
+    <t>{3.0: 0.6037733799331189, 418.0: 0.22706009789142137, 922.0: 0.1691665221754596}</t>
+  </si>
+  <si>
+    <t>{929.0: 0.5440607146871506, 930.0: 0.45593928531284944}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.9962050569246315, 929.0: 0.0037949430753685355}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 0.8733408699141656, 702.0: 0.005508299400278559, 249.0: 0.12115083068555589}</t>
-  </si>
-  <si>
-    <t>{934.0: 0.9748517200474495, 5.0: 0.025148279952550416}</t>
+    <t>{933.0: 0.8738662178227145, 702.0: 0.005485663639816162, 249.0: 0.12064811853746933}</t>
+  </si>
+  <si>
+    <t>{934.0: 0.9748517200474496, 5.0: 0.025148279952550416}</t>
   </si>
   <si>
     <t>{935.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 0.9930522596635555, 171.0: 0.003310174198878518, 593.0: 0.0036375661375661382}</t>
+    <t>{937.0: 0.9930546558837804, 171.0: 0.003310182186279268, 593.0: 0.0036351619299405157}</t>
   </si>
   <si>
     <t>{938.0: 1.0}</t>
@@ -2404,13 +2404,13 @@
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.9131443726172717, 634.0: 0.08685562738272833}</t>
+    <t>{943.0: 0.914935064935065, 634.0: 0.08506493506493505}</t>
   </si>
   <si>
     <t>{971.0: 0.9941116231438814, 975.0: 0.005888376856118791}</t>
   </si>
   <si>
-    <t>{139.0: 0.9541375872382851, 615.0: 0.045862412761714856}</t>
+    <t>{139.0: 0.9537688442211055, 615.0: 0.04623115577889446}</t>
   </si>
   <si>
     <t>{975.0: 1.0}</t>
@@ -2425,10 +2425,10 @@
     <t>{989.0: 0.9567945932898866, 249.0: 0.007603186097031138, 495.0: 0.035602220613082304}</t>
   </si>
   <si>
-    <t>{990.0: 0.9929775280898875, 599.0: 0.00702247191011236}</t>
-  </si>
-  <si>
-    <t>{497.0: 0.8117579471466869, 938.0: 0.18824205285331294}</t>
+    <t>{990.0: 0.9929775280898876, 599.0: 0.007022471910112359}</t>
+  </si>
+  <si>
+    <t>{497.0: 0.8117579471466873, 938.0: 0.18824205285331294}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
@@ -4491,7 +4491,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4513,29 +4513,29 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>643</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>643</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4546,73 +4546,73 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>644</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>644</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>645</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>164</v>
+        <v>645</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>646</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>166</v>
+        <v>646</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4711,51 +4711,51 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>647</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>179</v>
+        <v>648</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4777,29 +4777,29 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>649</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>183</v>
+        <v>649</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4810,62 +4810,62 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>650</v>
+        <v>185</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>186</v>
+        <v>650</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>651</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>189</v>
+        <v>652</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4876,7 +4876,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4887,29 +4887,29 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>624</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>624</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4931,84 +4931,84 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>653</v>
+        <v>196</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>197</v>
+        <v>653</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>654</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>200</v>
+        <v>655</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>656</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>202</v>
+        <v>656</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -5030,7 +5030,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -5052,40 +5052,40 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>657</v>
+        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>209</v>
+        <v>658</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -5107,7 +5107,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -5118,62 +5118,62 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>659</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>214</v>
+        <v>659</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>660</v>
+        <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>217</v>
+        <v>661</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -5184,29 +5184,29 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>662</v>
+        <v>219</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>220</v>
+        <v>662</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -5239,51 +5239,51 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>663</v>
+        <v>224</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>225</v>
+        <v>663</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>664</v>
+        <v>226</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>227</v>
+        <v>664</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
